--- a/data/metadata/Informe-915-150001-A-TC-TP.xlsx
+++ b/data/metadata/Informe-915-150001-A-TC-TP.xlsx
@@ -11,108 +11,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>abstencion</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>participacion</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>votos-blancos</t>
-  </si>
-  <si>
-    <t>-participacion</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>votos-a-candidaturas</t>
-  </si>
-  <si>
-    <t>censo-electoral</t>
-  </si>
-  <si>
-    <t>votos-nulos</t>
-  </si>
-  <si>
-    <t>poblacion</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+  <si>
+    <t>Población</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Abstención</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Votos blancos</t>
+  </si>
+  <si>
+    <t>Votos nulos</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Participación</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>% Participación</t>
+  </si>
+  <si>
+    <t>Censo electoral</t>
+  </si>
+  <si>
+    <t>Votos a candidaturas</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>iaest-measure:poblacion</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:abstencion</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:votos-blancos</t>
+  </si>
+  <si>
+    <t>iaest-measure:votos-nulos</t>
+  </si>
+  <si>
+    <t>iaest-measure:participacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:censo-electoral</t>
+  </si>
+  <si>
+    <t>iaest-measure:votos-a-candidaturas</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:abstencion</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:participacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:votos-blancos</t>
-  </si>
-  <si>
-    <t>iaest-measure:-participacion</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:votos-a-candidaturas</t>
-  </si>
-  <si>
-    <t>iaest-measure:censo-electoral</t>
-  </si>
-  <si>
-    <t>iaest-measure:votos-nulos</t>
-  </si>
-  <si>
-    <t>iaest-measure:poblacion</t>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
     <t>URI-Provincia</t>
   </si>
   <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -236,139 +233,136 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
